--- a/configs/Unit.xlsx
+++ b/configs/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EB77D9-67A9-458F-B790-2611CC63B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304562EE-15CD-4B19-AA14-CF7F3E93535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="4680" windowWidth="28800" windowHeight="15345" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21120" windowHeight="20430" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -65,36 +65,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>字图</t>
-  </si>
-  <si>
-    <t>基础属性</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>Map&lt;StatId, any&gt;</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>法师</t>
-  </si>
-  <si>
-    <t>道士</t>
-  </si>
-  <si>
     <t>🥷</t>
   </si>
   <si>
@@ -113,23 +86,125 @@
     <t>maxhp:36;maxmp:19</t>
   </si>
   <si>
-    <t>Index Enum:UnitId</t>
-  </si>
-  <si>
-    <t>enum</t>
+    <t>Enum:UnitId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>字图</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>基础属性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>战士</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>法师</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>道士</t>
+    </r>
+  </si>
+  <si>
+    <t>Map&lt;StatId, number[]&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,12 +233,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,7 +255,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -498,120 +574,119 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/configs/Unit.xlsx
+++ b/configs/Unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304562EE-15CD-4B19-AA14-CF7F3E93535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7154244C-FFAB-47C9-85E5-536C0230233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21120" windowHeight="20430" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>wlk</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>string</t>
@@ -94,111 +91,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>描述</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>字图</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>基础属性</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>战士</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>法师</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>道士</t>
-    </r>
-  </si>
-  <si>
     <t>Map&lt;StatId, number[]&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Enum:UnitType</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>字图</t>
+  </si>
+  <si>
+    <t>基础属性</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>道士</t>
+  </si>
+  <si>
+    <t>标识</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>clawcat</t>
+  </si>
+  <si>
+    <t>多钩猫</t>
+  </si>
+  <si>
+    <t>尸王</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>赤月恶魔</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>corpseking</t>
+  </si>
+  <si>
+    <t>redmoondemon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -235,11 +212,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,23 +548,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,94 +573,145 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/configs/Unit.xlsx
+++ b/configs/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7154244C-FFAB-47C9-85E5-536C0230233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAE43E-526F-4665-B396-F0AC8A41AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>redmoondemon</t>
+  </si>
+  <si>
+    <t>anya</t>
+  </si>
+  <si>
+    <t>安雅</t>
+  </si>
+  <si>
+    <t>npc</t>
+  </si>
+  <si>
+    <t>🧕</t>
   </si>
 </sst>
 </file>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7F59DC-7A1E-447A-A632-2A0549861B5B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +726,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/Unit.xlsx
+++ b/configs/Unit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAE43E-526F-4665-B396-F0AC8A41AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95697546-6C28-4585-AC2C-BB15E65F805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{BE06346D-0448-4393-8808-56E6116DD3E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,21 +563,21 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -617,12 +617,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -642,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -704,7 +704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -726,7 +726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
